--- a/VND/Документы для мониторинга залога.xlsx
+++ b/VND/Документы для мониторинга залога.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79184.WIN-OOR1JAM5834\carshop-bot\CMS\VND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCC6F462-CD81-4552-8B04-F05B0425A947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465290AF-2493-435E-A806-4A837F765BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="НДИ" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="285">
   <si>
     <t>Перечень документов</t>
   </si>
@@ -1142,9 +1142,6 @@
   </si>
   <si>
     <t>Расшифровка соответствующих балансовых счетов Залогодателя (01, 03, 07 и 08) или выписка соответствующих балансовых счетов), оригинал и в Excel</t>
-  </si>
-  <si>
-    <t>Приложение 31</t>
   </si>
   <si>
     <r>
@@ -4599,6 +4596,18 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4613,18 +4622,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -5909,8 +5906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="D22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -5928,22 +5925,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="I1" s="118" t="s">
-        <v>284</v>
-      </c>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:9" ht="66">
       <c r="A3" s="91" t="s">
@@ -5981,19 +5976,19 @@
       <c r="B4" s="122" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="129" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="125" t="s">
+      <c r="E4" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="129" t="s">
         <v>209</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -6010,11 +6005,11 @@
       <c r="B5" s="124" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
       <c r="H5" s="10" t="s">
         <v>259</v>
       </c>
@@ -6166,55 +6161,55 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="52.8">
-      <c r="A11" s="125">
+      <c r="A11" s="129">
         <v>8</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="127" t="s">
         <v>221</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="H11" s="125" t="s">
+      <c r="H11" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="I11" s="125" t="s">
+      <c r="I11" s="129" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="39.6">
-      <c r="A12" s="126"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="80" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="133"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
     </row>
     <row r="13" spans="1:9" ht="81">
       <c r="A13" s="10">
         <v>9</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="80" t="s">
         <v>179</v>
@@ -6306,17 +6301,17 @@
       <c r="I16" s="89"/>
     </row>
     <row r="17" spans="1:9" ht="48" customHeight="1">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="120" t="s">
@@ -6347,11 +6342,11 @@
       <c r="B24" s="100" t="s">
         <v>245</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="131" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="129"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="133"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="99" t="s">
@@ -6360,11 +6355,11 @@
       <c r="B25" s="100" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="131" t="s">
         <v>248</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="129"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="133"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="99" t="s">
@@ -6373,11 +6368,11 @@
       <c r="B26" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="133"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="99" t="s">
@@ -6386,14 +6381,18 @@
       <c r="B27" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="129"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="C11:C12"/>
@@ -6408,10 +6407,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6422,8 +6417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -6442,9 +6437,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="102"/>
-      <c r="I1" s="118" t="s">
-        <v>284</v>
-      </c>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="102" t="s">
@@ -6809,8 +6802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -6827,9 +6820,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="I1" s="118" t="s">
-        <v>284</v>
-      </c>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="106" t="s">
@@ -7051,8 +7042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -7067,9 +7058,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="G1" s="118" t="s">
-        <v>284</v>
-      </c>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1">
       <c r="A2" s="101" t="s">
@@ -7445,8 +7434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7467,9 +7456,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="S1" s="118" t="s">
-        <v>284</v>
-      </c>
+      <c r="S1" s="118"/>
     </row>
     <row r="2" spans="1:19" ht="16.2" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -8549,7 +8536,7 @@
   </sheetPr>
   <dimension ref="A1:CX46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="80" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -9068,9 +9055,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:102">
-      <c r="O1" s="118" t="s">
-        <v>284</v>
-      </c>
+      <c r="O1" s="118"/>
     </row>
     <row r="2" spans="1:102" ht="19.5" customHeight="1">
       <c r="A2" s="138" t="s">
@@ -13359,7 +13344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
